--- a/public/simples/الدائرى تمهيدى بنات.xlsx
+++ b/public/simples/الدائرى تمهيدى بنات.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\charity\SLS System\تمهيدى - 2024-2025\Ald2ry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Elsayed\Desktop\sidigaberAdmin\public\simples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86FCF6A-C202-4844-A781-DA6373F671D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2827CEEE-5DA1-45ED-A1DE-D349A1FA822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="624" windowWidth="14544" windowHeight="12336" xr2:uid="{57AC980A-7F51-4789-AF6B-F3EFE678C2EE}"/>
+    <workbookView xWindow="3330" yWindow="0" windowWidth="17160" windowHeight="10920" xr2:uid="{57AC980A-7F51-4789-AF6B-F3EFE678C2EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -153,9 +144,6 @@
     <t>دانيا مازن عبد الرحمن ابو العنين  بدر</t>
   </si>
   <si>
-    <t>رنا أشرف محمد ناظن</t>
-  </si>
-  <si>
     <t>روضة محمد عباس إبراهيم</t>
   </si>
   <si>
@@ -331,6 +319,9 @@
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>رنا أشرف محمد ناظم</t>
   </si>
 </sst>
 </file>
@@ -728,17 +719,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835FAE8-C31D-4534-9A1F-DE56C901F3DC}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F88"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -767,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>32105010200782</v>
       </c>
@@ -775,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -796,7 +788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>32104140201962</v>
       </c>
@@ -804,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -825,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>32010040202568</v>
       </c>
@@ -833,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -854,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>32107290202869</v>
       </c>
@@ -862,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>32108080201343</v>
       </c>
@@ -891,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -912,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>32010011822409</v>
       </c>
@@ -920,7 +912,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -941,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>32101110201225</v>
       </c>
@@ -949,7 +941,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -970,7 +962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>32010030200621</v>
       </c>
@@ -978,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -999,7 +991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>32010040202541</v>
       </c>
@@ -1007,7 +999,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1028,7 +1020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>32010220201721</v>
       </c>
@@ -1036,7 +1028,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1057,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>32109170200903</v>
       </c>
@@ -1065,7 +1057,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1086,7 +1078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>32011170200563</v>
       </c>
@@ -1094,7 +1086,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1115,7 +1107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>32105150200243</v>
       </c>
@@ -1123,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1144,7 +1136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>32106080200549</v>
       </c>
@@ -1152,7 +1144,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1173,7 +1165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>32103170201383</v>
       </c>
@@ -1181,7 +1173,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1202,7 +1194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>32105230200325</v>
       </c>
@@ -1210,7 +1202,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1231,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>32107060201944</v>
       </c>
@@ -1239,7 +1231,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1260,7 +1252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>32107170202105</v>
       </c>
@@ -1268,7 +1260,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1289,7 +1281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>32102260200665</v>
       </c>
@@ -1297,7 +1289,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1318,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>32101090200707</v>
       </c>
@@ -1326,7 +1318,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1347,7 +1339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>32010100201167</v>
       </c>
@@ -1355,7 +1347,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1376,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>32102040200184</v>
       </c>
@@ -1384,7 +1376,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1405,7 +1397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>32103210201586</v>
       </c>
@@ -1413,7 +1405,7 @@
         <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1434,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>32011030200768</v>
       </c>
@@ -1442,7 +1434,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1463,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>32101260200049</v>
       </c>
@@ -1471,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1492,7 +1484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>32104110200368</v>
       </c>
@@ -1500,7 +1492,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1521,7 +1513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>32101170200503</v>
       </c>
@@ -1529,7 +1521,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1550,7 +1542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>32010130201226</v>
       </c>
@@ -1558,7 +1550,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1579,15 +1571,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>32103250201465</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1608,15 +1600,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>32010150202563</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1637,15 +1629,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>32010040201049</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1666,15 +1658,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32106260201268</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1695,15 +1687,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32102010200368</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1724,15 +1716,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>32107300201149</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1753,15 +1745,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>32011200201349</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1782,15 +1774,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32103080201481</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1811,15 +1803,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>32105270202584</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1840,15 +1832,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>32010200204104</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1869,15 +1861,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>32103280201222</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1898,15 +1890,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>32101270201027</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1927,15 +1919,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>32102100203382</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1956,15 +1948,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>32011010203787</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1985,15 +1977,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>32011190201485</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2014,15 +2006,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>32103060200764</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2043,15 +2035,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>32104280201067</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2072,15 +2064,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>32012170202562</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2101,15 +2093,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>32105200200703</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2130,15 +2122,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>32109140200542</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2159,15 +2151,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>32011280202286</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2188,15 +2180,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>32010250201807</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2217,15 +2209,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>32109110200181</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2246,15 +2238,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>32104150201588</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2275,15 +2267,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>32103210200504</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2304,15 +2296,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>32012090201727</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2333,15 +2325,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>32010190201845</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2362,15 +2354,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>32012120201603</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2391,15 +2383,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>32012260201921</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2420,15 +2412,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>32102240201142</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2449,15 +2441,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>32012280201928</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2478,15 +2470,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>32103100202447</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2507,15 +2499,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>32012170200543</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2536,15 +2528,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>32106170202567</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2565,15 +2557,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>32010110202706</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2594,15 +2586,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>32010120200264</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2623,15 +2615,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>32109250203288</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2652,15 +2644,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>32103130200961</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2681,15 +2673,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>32010100205227</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2710,15 +2702,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>32107040202103</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2739,15 +2731,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>32108250202501</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2768,15 +2760,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>32103170201405</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2797,15 +2789,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>32109010201148</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2826,15 +2818,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>32109120200325</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2855,15 +2847,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>32105290200669</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2884,15 +2876,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>32108090202224</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -2913,15 +2905,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>32105310200148</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -2942,15 +2934,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>32106150201408</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -2971,15 +2963,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>32012170200861</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3000,15 +2992,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>32101170200406</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3029,15 +3021,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>32106210201186</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3058,15 +3050,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>32107280201163</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3087,15 +3079,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>32108190200709</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3116,15 +3108,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>32010140201623</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3145,15 +3137,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>32107150203288</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -3174,15 +3166,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>32010160201182</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3203,15 +3195,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>32104120200781</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3232,15 +3224,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>32010160201166</v>
       </c>
       <c r="B87" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3261,15 +3253,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>32107290201781</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D88">
         <v>1</v>

--- a/public/simples/الدائرى تمهيدى بنات.xlsx
+++ b/public/simples/الدائرى تمهيدى بنات.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed Elsayed\Desktop\sidigaberAdmin\public\simples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2827CEEE-5DA1-45ED-A1DE-D349A1FA822E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E3FEE5-3AC7-49C5-A32B-6E2713A6998B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3330" yWindow="0" windowWidth="17160" windowHeight="10920" xr2:uid="{57AC980A-7F51-4789-AF6B-F3EFE678C2EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="186">
   <si>
     <t>name</t>
   </si>
@@ -322,6 +322,267 @@
   </si>
   <si>
     <t>رنا أشرف محمد ناظم</t>
+  </si>
+  <si>
+    <t>32105010200782</t>
+  </si>
+  <si>
+    <t>32104140201962</t>
+  </si>
+  <si>
+    <t>32010040202568</t>
+  </si>
+  <si>
+    <t>32107290202869</t>
+  </si>
+  <si>
+    <t>32108080201343</t>
+  </si>
+  <si>
+    <t>32010011822409</t>
+  </si>
+  <si>
+    <t>32101110201225</t>
+  </si>
+  <si>
+    <t>32010030200621</t>
+  </si>
+  <si>
+    <t>32010040202541</t>
+  </si>
+  <si>
+    <t>32010220201721</t>
+  </si>
+  <si>
+    <t>32109170200903</t>
+  </si>
+  <si>
+    <t>32011170200563</t>
+  </si>
+  <si>
+    <t>32105150200243</t>
+  </si>
+  <si>
+    <t>32106080200549</t>
+  </si>
+  <si>
+    <t>32103170201383</t>
+  </si>
+  <si>
+    <t>32105230200325</t>
+  </si>
+  <si>
+    <t>32107060201944</t>
+  </si>
+  <si>
+    <t>32107170202105</t>
+  </si>
+  <si>
+    <t>32102260200665</t>
+  </si>
+  <si>
+    <t>32101090200707</t>
+  </si>
+  <si>
+    <t>32010100201167</t>
+  </si>
+  <si>
+    <t>32102040200184</t>
+  </si>
+  <si>
+    <t>32103210201586</t>
+  </si>
+  <si>
+    <t>32011030200768</t>
+  </si>
+  <si>
+    <t>32101260200049</t>
+  </si>
+  <si>
+    <t>32104110200368</t>
+  </si>
+  <si>
+    <t>32101170200503</t>
+  </si>
+  <si>
+    <t>32010130201226</t>
+  </si>
+  <si>
+    <t>32103250201465</t>
+  </si>
+  <si>
+    <t>32010150202563</t>
+  </si>
+  <si>
+    <t>32010040201049</t>
+  </si>
+  <si>
+    <t>32106260201268</t>
+  </si>
+  <si>
+    <t>32102010200368</t>
+  </si>
+  <si>
+    <t>32107300201149</t>
+  </si>
+  <si>
+    <t>32011200201349</t>
+  </si>
+  <si>
+    <t>32103080201481</t>
+  </si>
+  <si>
+    <t>32105270202584</t>
+  </si>
+  <si>
+    <t>32010200204104</t>
+  </si>
+  <si>
+    <t>32103280201222</t>
+  </si>
+  <si>
+    <t>32101270201027</t>
+  </si>
+  <si>
+    <t>32102100203382</t>
+  </si>
+  <si>
+    <t>32011010203787</t>
+  </si>
+  <si>
+    <t>32011190201485</t>
+  </si>
+  <si>
+    <t>32103060200764</t>
+  </si>
+  <si>
+    <t>32104280201067</t>
+  </si>
+  <si>
+    <t>32012170202562</t>
+  </si>
+  <si>
+    <t>32105200200703</t>
+  </si>
+  <si>
+    <t>32109140200542</t>
+  </si>
+  <si>
+    <t>32011280202286</t>
+  </si>
+  <si>
+    <t>32010250201807</t>
+  </si>
+  <si>
+    <t>32109110200181</t>
+  </si>
+  <si>
+    <t>32104150201588</t>
+  </si>
+  <si>
+    <t>32103210200504</t>
+  </si>
+  <si>
+    <t>32012090201727</t>
+  </si>
+  <si>
+    <t>32010190201845</t>
+  </si>
+  <si>
+    <t>32012120201603</t>
+  </si>
+  <si>
+    <t>32012260201921</t>
+  </si>
+  <si>
+    <t>32102240201142</t>
+  </si>
+  <si>
+    <t>32012280201928</t>
+  </si>
+  <si>
+    <t>32103100202447</t>
+  </si>
+  <si>
+    <t>32012170200543</t>
+  </si>
+  <si>
+    <t>32106170202567</t>
+  </si>
+  <si>
+    <t>32010110202706</t>
+  </si>
+  <si>
+    <t>32010120200264</t>
+  </si>
+  <si>
+    <t>32109250203288</t>
+  </si>
+  <si>
+    <t>32103130200961</t>
+  </si>
+  <si>
+    <t>32010100205227</t>
+  </si>
+  <si>
+    <t>32107040202103</t>
+  </si>
+  <si>
+    <t>32108250202501</t>
+  </si>
+  <si>
+    <t>32103170201405</t>
+  </si>
+  <si>
+    <t>32109010201148</t>
+  </si>
+  <si>
+    <t>32109120200325</t>
+  </si>
+  <si>
+    <t>32105290200669</t>
+  </si>
+  <si>
+    <t>32108090202224</t>
+  </si>
+  <si>
+    <t>32105310200148</t>
+  </si>
+  <si>
+    <t>32106150201408</t>
+  </si>
+  <si>
+    <t>32012170200861</t>
+  </si>
+  <si>
+    <t>32101170200406</t>
+  </si>
+  <si>
+    <t>32106210201186</t>
+  </si>
+  <si>
+    <t>32107280201163</t>
+  </si>
+  <si>
+    <t>32108190200709</t>
+  </si>
+  <si>
+    <t>32010140201623</t>
+  </si>
+  <si>
+    <t>32107150203288</t>
+  </si>
+  <si>
+    <t>32010160201182</t>
+  </si>
+  <si>
+    <t>32104120200781</t>
+  </si>
+  <si>
+    <t>32010160201166</t>
+  </si>
+  <si>
+    <t>32107290201781</t>
   </si>
 </sst>
 </file>
@@ -393,13 +654,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835FAE8-C31D-4534-9A1F-DE56C901F3DC}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,13 +1021,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>32105010200782</v>
+      <c r="A2" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D2">
@@ -775,7 +1036,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>5000</v>
       </c>
       <c r="G2" t="s">
@@ -789,13 +1050,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>32104140201962</v>
+      <c r="A3" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D3">
@@ -804,7 +1065,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>5000</v>
       </c>
       <c r="G3" t="s">
@@ -818,13 +1079,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>32010040202568</v>
+      <c r="A4" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D4">
@@ -833,7 +1094,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>5000</v>
       </c>
       <c r="G4" t="s">
@@ -847,13 +1108,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>32107290202869</v>
+      <c r="A5" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D5">
@@ -862,7 +1123,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>5000</v>
       </c>
       <c r="G5" t="s">
@@ -876,13 +1137,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>32108080201343</v>
+      <c r="A6" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D6">
@@ -891,7 +1152,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>5000</v>
       </c>
       <c r="G6" t="s">
@@ -905,13 +1166,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>32010011822409</v>
+      <c r="A7" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D7">
@@ -920,7 +1181,7 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>5000</v>
       </c>
       <c r="G7" t="s">
@@ -934,13 +1195,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>32101110201225</v>
+      <c r="A8" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D8">
@@ -949,7 +1210,7 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>5000</v>
       </c>
       <c r="G8" t="s">
@@ -963,13 +1224,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>32010030200621</v>
+      <c r="A9" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D9">
@@ -978,7 +1239,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>4000</v>
       </c>
       <c r="G9" t="s">
@@ -992,13 +1253,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>32010040202541</v>
+      <c r="A10" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D10">
@@ -1007,7 +1268,7 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>5000</v>
       </c>
       <c r="G10" t="s">
@@ -1021,13 +1282,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>32010220201721</v>
+      <c r="A11" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D11">
@@ -1036,7 +1297,7 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>5000</v>
       </c>
       <c r="G11" t="s">
@@ -1050,13 +1311,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>32109170200903</v>
+      <c r="A12" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D12">
@@ -1065,7 +1326,7 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>5000</v>
       </c>
       <c r="G12" t="s">
@@ -1079,13 +1340,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>32011170200563</v>
+      <c r="A13" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D13">
@@ -1094,7 +1355,7 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>5000</v>
       </c>
       <c r="G13" t="s">
@@ -1108,13 +1369,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>32105150200243</v>
+      <c r="A14" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D14">
@@ -1123,7 +1384,7 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>4000</v>
       </c>
       <c r="G14" t="s">
@@ -1137,13 +1398,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>32106080200549</v>
+      <c r="A15" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D15">
@@ -1152,7 +1413,7 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>5000</v>
       </c>
       <c r="G15" t="s">
@@ -1166,13 +1427,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>32103170201383</v>
+      <c r="A16" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D16">
@@ -1181,7 +1442,7 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>5000</v>
       </c>
       <c r="G16" t="s">
@@ -1195,13 +1456,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>32105230200325</v>
+      <c r="A17" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D17">
@@ -1210,7 +1471,7 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>5000</v>
       </c>
       <c r="G17" t="s">
@@ -1224,13 +1485,13 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>32107060201944</v>
+      <c r="A18" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D18">
@@ -1239,7 +1500,7 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>5000</v>
       </c>
       <c r="G18" t="s">
@@ -1253,13 +1514,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>32107170202105</v>
+      <c r="A19" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D19">
@@ -1268,7 +1529,7 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>5000</v>
       </c>
       <c r="G19" t="s">
@@ -1282,13 +1543,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>32102260200665</v>
+      <c r="A20" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D20">
@@ -1297,7 +1558,7 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>5000</v>
       </c>
       <c r="G20" t="s">
@@ -1311,13 +1572,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>32101090200707</v>
+      <c r="A21" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D21">
@@ -1326,7 +1587,7 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>5000</v>
       </c>
       <c r="G21" t="s">
@@ -1340,13 +1601,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>32010100201167</v>
+      <c r="A22" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D22">
@@ -1355,7 +1616,7 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>5000</v>
       </c>
       <c r="G22" t="s">
@@ -1369,13 +1630,13 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>32102040200184</v>
+      <c r="A23" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D23">
@@ -1384,7 +1645,7 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>5000</v>
       </c>
       <c r="G23" t="s">
@@ -1398,13 +1659,13 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>32103210201586</v>
+      <c r="A24" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D24">
@@ -1413,7 +1674,7 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>5000</v>
       </c>
       <c r="G24" t="s">
@@ -1427,13 +1688,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>32011030200768</v>
+      <c r="A25" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D25">
@@ -1442,7 +1703,7 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>4000</v>
       </c>
       <c r="G25" t="s">
@@ -1456,13 +1717,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>32101260200049</v>
+      <c r="A26" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D26">
@@ -1471,7 +1732,7 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>5000</v>
       </c>
       <c r="G26" t="s">
@@ -1485,13 +1746,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>32104110200368</v>
+      <c r="A27" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D27">
@@ -1500,7 +1761,7 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>5000</v>
       </c>
       <c r="G27" t="s">
@@ -1514,13 +1775,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>32101170200503</v>
+      <c r="A28" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D28">
@@ -1529,7 +1790,7 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>5000</v>
       </c>
       <c r="G28" t="s">
@@ -1543,13 +1804,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>32010130201226</v>
+      <c r="A29" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D29">
@@ -1558,7 +1819,7 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>5000</v>
       </c>
       <c r="G29" t="s">
@@ -1572,13 +1833,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>32103250201465</v>
+      <c r="A30" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B30" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D30">
@@ -1587,7 +1848,7 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>5000</v>
       </c>
       <c r="G30" t="s">
@@ -1601,13 +1862,13 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>32010150202563</v>
+      <c r="A31" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D31">
@@ -1616,7 +1877,7 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>5000</v>
       </c>
       <c r="G31" t="s">
@@ -1630,13 +1891,13 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>32010040201049</v>
+      <c r="A32" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D32">
@@ -1645,7 +1906,7 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>5000</v>
       </c>
       <c r="G32" t="s">
@@ -1659,13 +1920,13 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>32106260201268</v>
+      <c r="A33" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D33">
@@ -1674,7 +1935,7 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <v>5000</v>
       </c>
       <c r="G33" t="s">
@@ -1688,13 +1949,13 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>32102010200368</v>
+      <c r="A34" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D34">
@@ -1703,7 +1964,7 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>5000</v>
       </c>
       <c r="G34" t="s">
@@ -1717,13 +1978,13 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>32107300201149</v>
+      <c r="A35" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D35">
@@ -1732,7 +1993,7 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>5000</v>
       </c>
       <c r="G35" t="s">
@@ -1746,13 +2007,13 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>32011200201349</v>
+      <c r="A36" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D36">
@@ -1761,7 +2022,7 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>5000</v>
       </c>
       <c r="G36" t="s">
@@ -1775,13 +2036,13 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>32103080201481</v>
+      <c r="A37" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D37">
@@ -1790,7 +2051,7 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="2">
         <v>5000</v>
       </c>
       <c r="G37" t="s">
@@ -1804,13 +2065,13 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>32105270202584</v>
+      <c r="A38" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D38">
@@ -1819,7 +2080,7 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="2">
         <v>5000</v>
       </c>
       <c r="G38" t="s">
@@ -1833,13 +2094,13 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>32010200204104</v>
+      <c r="A39" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D39">
@@ -1848,7 +2109,7 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="2">
         <v>5000</v>
       </c>
       <c r="G39" t="s">
@@ -1862,13 +2123,13 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>32103280201222</v>
+      <c r="A40" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D40">
@@ -1877,7 +2138,7 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="2">
         <v>5000</v>
       </c>
       <c r="G40" t="s">
@@ -1891,13 +2152,13 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>32101270201027</v>
+      <c r="A41" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D41">
@@ -1906,7 +2167,7 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="2">
         <v>5000</v>
       </c>
       <c r="G41" t="s">
@@ -1920,13 +2181,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>32102100203382</v>
+      <c r="A42" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D42">
@@ -1935,7 +2196,7 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="2">
         <v>5000</v>
       </c>
       <c r="G42" t="s">
@@ -1949,13 +2210,13 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>32011010203787</v>
+      <c r="A43" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D43">
@@ -1964,7 +2225,7 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="2">
         <v>5000</v>
       </c>
       <c r="G43" t="s">
@@ -1978,13 +2239,13 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>32011190201485</v>
+      <c r="A44" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B44" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D44">
@@ -1993,7 +2254,7 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <v>4000</v>
       </c>
       <c r="G44" t="s">
@@ -2007,13 +2268,13 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>32103060200764</v>
+      <c r="A45" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D45">
@@ -2022,7 +2283,7 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <v>5000</v>
       </c>
       <c r="G45" t="s">
@@ -2036,13 +2297,13 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>32104280201067</v>
+      <c r="A46" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B46" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D46">
@@ -2051,7 +2312,7 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>5000</v>
       </c>
       <c r="G46" t="s">
@@ -2065,13 +2326,13 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>32012170202562</v>
+      <c r="A47" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D47">
@@ -2080,7 +2341,7 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <v>5000</v>
       </c>
       <c r="G47" t="s">
@@ -2094,13 +2355,13 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>32105200200703</v>
+      <c r="A48" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="B48" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D48">
@@ -2109,7 +2370,7 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="2">
         <v>5000</v>
       </c>
       <c r="G48" t="s">
@@ -2123,13 +2384,13 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>32109140200542</v>
+      <c r="A49" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D49">
@@ -2138,7 +2399,7 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="2">
         <v>5000</v>
       </c>
       <c r="G49" t="s">
@@ -2152,13 +2413,13 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>32011280202286</v>
+      <c r="A50" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B50" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D50">
@@ -2167,7 +2428,7 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="2">
         <v>5000</v>
       </c>
       <c r="G50" t="s">
@@ -2181,13 +2442,13 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>32010250201807</v>
+      <c r="A51" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D51">
@@ -2196,7 +2457,7 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <v>5000</v>
       </c>
       <c r="G51" t="s">
@@ -2210,13 +2471,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>32109110200181</v>
+      <c r="A52" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D52">
@@ -2225,7 +2486,7 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <v>5000</v>
       </c>
       <c r="G52" t="s">
@@ -2239,13 +2500,13 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>32104150201588</v>
+      <c r="A53" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D53">
@@ -2254,7 +2515,7 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="2">
         <v>5000</v>
       </c>
       <c r="G53" t="s">
@@ -2268,13 +2529,13 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>32103210200504</v>
+      <c r="A54" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D54">
@@ -2283,7 +2544,7 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="2">
         <v>4000</v>
       </c>
       <c r="G54" t="s">
@@ -2297,13 +2558,13 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>32012090201727</v>
+      <c r="A55" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="B55" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D55">
@@ -2312,7 +2573,7 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="2">
         <v>5000</v>
       </c>
       <c r="G55" t="s">
@@ -2326,13 +2587,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>32010190201845</v>
+      <c r="A56" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D56">
@@ -2341,7 +2602,7 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="2">
         <v>5000</v>
       </c>
       <c r="G56" t="s">
@@ -2355,13 +2616,13 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>32012120201603</v>
+      <c r="A57" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D57">
@@ -2370,7 +2631,7 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="2">
         <v>5000</v>
       </c>
       <c r="G57" t="s">
@@ -2384,13 +2645,13 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>32012260201921</v>
+      <c r="A58" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B58" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D58">
@@ -2399,7 +2660,7 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="2">
         <v>5000</v>
       </c>
       <c r="G58" t="s">
@@ -2413,13 +2674,13 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>32102240201142</v>
+      <c r="A59" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="B59" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D59">
@@ -2428,7 +2689,7 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="2">
         <v>5000</v>
       </c>
       <c r="G59" t="s">
@@ -2442,13 +2703,13 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>32012280201928</v>
+      <c r="A60" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="B60" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D60">
@@ -2457,7 +2718,7 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="2">
         <v>5000</v>
       </c>
       <c r="G60" t="s">
@@ -2471,13 +2732,13 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>32103100202447</v>
+      <c r="A61" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="B61" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D61">
@@ -2486,7 +2747,7 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="2">
         <v>5000</v>
       </c>
       <c r="G61" t="s">
@@ -2500,13 +2761,13 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>32012170200543</v>
+      <c r="A62" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D62">
@@ -2515,7 +2776,7 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="2">
         <v>5000</v>
       </c>
       <c r="G62" t="s">
@@ -2529,13 +2790,13 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>32106170202567</v>
+      <c r="A63" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B63" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D63">
@@ -2544,7 +2805,7 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="2">
         <v>5000</v>
       </c>
       <c r="G63" t="s">
@@ -2558,13 +2819,13 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>32010110202706</v>
+      <c r="A64" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D64">
@@ -2573,7 +2834,7 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="2">
         <v>5000</v>
       </c>
       <c r="G64" t="s">
@@ -2587,13 +2848,13 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>32010120200264</v>
+      <c r="A65" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B65" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D65">
@@ -2602,7 +2863,7 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="2">
         <v>5000</v>
       </c>
       <c r="G65" t="s">
@@ -2616,13 +2877,13 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>32109250203288</v>
+      <c r="A66" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="B66" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D66">
@@ -2631,7 +2892,7 @@
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="2">
         <v>4000</v>
       </c>
       <c r="G66" t="s">
@@ -2645,13 +2906,13 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>32103130200961</v>
+      <c r="A67" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="B67" t="s">
         <v>75</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D67">
@@ -2660,7 +2921,7 @@
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="2">
         <v>4000</v>
       </c>
       <c r="G67" t="s">
@@ -2674,13 +2935,13 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>32010100205227</v>
+      <c r="A68" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B68" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D68">
@@ -2689,7 +2950,7 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="2">
         <v>5000</v>
       </c>
       <c r="G68" t="s">
@@ -2703,13 +2964,13 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>32107040202103</v>
+      <c r="A69" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D69">
@@ -2718,7 +2979,7 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="2">
         <v>5000</v>
       </c>
       <c r="G69" t="s">
@@ -2732,13 +2993,13 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>32108250202501</v>
+      <c r="A70" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="B70" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D70">
@@ -2747,7 +3008,7 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="2">
         <v>5000</v>
       </c>
       <c r="G70" t="s">
@@ -2761,13 +3022,13 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>32103170201405</v>
+      <c r="A71" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B71" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D71">
@@ -2776,7 +3037,7 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="2">
         <v>5000</v>
       </c>
       <c r="G71" t="s">
@@ -2790,13 +3051,13 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>32109010201148</v>
+      <c r="A72" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="B72" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D72">
@@ -2805,7 +3066,7 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="2">
         <v>5000</v>
       </c>
       <c r="G72" t="s">
@@ -2819,13 +3080,13 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>32109120200325</v>
+      <c r="A73" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B73" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D73">
@@ -2834,7 +3095,7 @@
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="2">
         <v>5000</v>
       </c>
       <c r="G73" t="s">
@@ -2848,13 +3109,13 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>32105290200669</v>
+      <c r="A74" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B74" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D74">
@@ -2863,7 +3124,7 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="2">
         <v>5000</v>
       </c>
       <c r="G74" t="s">
@@ -2877,13 +3138,13 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>32108090202224</v>
+      <c r="A75" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="B75" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D75">
@@ -2892,7 +3153,7 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="2">
         <v>5000</v>
       </c>
       <c r="G75" t="s">
@@ -2906,13 +3167,13 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>32105310200148</v>
+      <c r="A76" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D76">
@@ -2921,7 +3182,7 @@
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="2">
         <v>4000</v>
       </c>
       <c r="G76" t="s">
@@ -2935,13 +3196,13 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>32106150201408</v>
+      <c r="A77" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="B77" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D77">
@@ -2950,7 +3211,7 @@
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="2">
         <v>4000</v>
       </c>
       <c r="G77" t="s">
@@ -2964,13 +3225,13 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>32012170200861</v>
+      <c r="A78" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B78" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D78">
@@ -2979,7 +3240,7 @@
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="2">
         <v>5000</v>
       </c>
       <c r="G78" t="s">
@@ -2993,13 +3254,13 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>32101170200406</v>
+      <c r="A79" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B79" t="s">
         <v>87</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D79">
@@ -3008,7 +3269,7 @@
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="2">
         <v>5000</v>
       </c>
       <c r="G79" t="s">
@@ -3022,13 +3283,13 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>32106210201186</v>
+      <c r="A80" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D80">
@@ -3037,7 +3298,7 @@
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="2">
         <v>5000</v>
       </c>
       <c r="G80" t="s">
@@ -3051,13 +3312,13 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>32107280201163</v>
+      <c r="A81" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="B81" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D81">
@@ -3066,7 +3327,7 @@
       <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="2">
         <v>5000</v>
       </c>
       <c r="G81" t="s">
@@ -3080,13 +3341,13 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>32108190200709</v>
+      <c r="A82" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B82" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D82">
@@ -3095,7 +3356,7 @@
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="2">
         <v>5000</v>
       </c>
       <c r="G82" t="s">
@@ -3109,13 +3370,13 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>32010140201623</v>
+      <c r="A83" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="B83" t="s">
         <v>91</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D83">
@@ -3124,7 +3385,7 @@
       <c r="E83">
         <v>1</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="2">
         <v>4000</v>
       </c>
       <c r="G83" t="s">
@@ -3138,13 +3399,13 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>32107150203288</v>
+      <c r="A84" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="B84" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D84">
@@ -3153,7 +3414,7 @@
       <c r="E84">
         <v>1</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="2">
         <v>4000</v>
       </c>
       <c r="G84" t="s">
@@ -3167,13 +3428,13 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>32010160201182</v>
+      <c r="A85" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="B85" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D85">
@@ -3182,7 +3443,7 @@
       <c r="E85">
         <v>1</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="2">
         <v>5000</v>
       </c>
       <c r="G85" t="s">
@@ -3196,13 +3457,13 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>32104120200781</v>
+      <c r="A86" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B86" t="s">
         <v>94</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D86">
@@ -3211,7 +3472,7 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="2">
         <v>5000</v>
       </c>
       <c r="G86" t="s">
@@ -3225,13 +3486,13 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>32010160201166</v>
+      <c r="A87" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="B87" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D87">
@@ -3240,7 +3501,7 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="2">
         <v>5000</v>
       </c>
       <c r="G87" t="s">
@@ -3254,13 +3515,13 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>32107290201781</v>
+      <c r="A88" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="B88" t="s">
         <v>96</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D88">
@@ -3269,7 +3530,7 @@
       <c r="E88">
         <v>1</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="2">
         <v>5000</v>
       </c>
       <c r="G88" t="s">
